--- a/src/test/java/com/riddhiHousingSociety/testData/singleUserTestData.xlsx
+++ b/src/test/java/com/riddhiHousingSociety/testData/singleUserTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\riddhiHousingSociety\src\test\java\com\riddhiHousingSociety\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027A6D1-02F2-41A1-A977-86B2842F4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868E95F-BE0D-40CE-8815-3E03483CF910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73434A11-7D49-4512-9291-CD1EE59AE1D9}"/>
   </bookViews>
